--- a/119/119.xlsx
+++ b/119/119.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MFT\004-scores\119\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF27672B-F525-4170-A65B-21BE203329D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C3347-5062-46D2-9FAC-C583A57C9C68}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="web 119" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -85,6 +85,18 @@
   </si>
   <si>
     <t>Q 06</t>
+  </si>
+  <si>
+    <t>Q 07</t>
+  </si>
+  <si>
+    <t>H 08</t>
+  </si>
+  <si>
+    <t>H 09</t>
+  </si>
+  <si>
+    <t>H 10</t>
   </si>
 </sst>
 </file>
@@ -626,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +661,7 @@
     <col min="16" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,11 +701,20 @@
       <c r="M1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>2</v>
       </c>
@@ -714,7 +735,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="14">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H2" s="14">
         <f>(3/4)*10</f>
@@ -740,10 +761,21 @@
         <f>(3/5)*10</f>
         <v>6</v>
       </c>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N2" s="1">
+        <f>(1/7)*10</f>
+        <v>1.4285714285714284</v>
+      </c>
+      <c r="O2" s="14">
+        <v>10</v>
+      </c>
+      <c r="P2" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>5</v>
       </c>
@@ -762,10 +794,11 @@
         <v>4.25</v>
       </c>
       <c r="F3" s="14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G3" s="14">
-        <v>0</v>
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="H3" s="14">
         <f>(1/4)*10</f>
@@ -789,10 +822,21 @@
         <f>(1/5)*10</f>
         <v>2</v>
       </c>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="1">
+        <f>(3/7)*10</f>
+        <v>4.2857142857142856</v>
+      </c>
+      <c r="O3" s="14">
+        <v>10</v>
+      </c>
+      <c r="P3" s="14">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -809,7 +853,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -826,7 +870,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -843,7 +887,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -860,7 +904,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -877,7 +921,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -894,7 +938,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -909,26 +953,26 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="7">
-        <v>120</v>
+        <v>160</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
@@ -951,61 +995,61 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2</v>
       </c>
       <c r="B14" s="11">
-        <f>SUM(B2:M2)</f>
-        <v>77.333333333333329</v>
+        <f>SUM(B2:Q2)</f>
+        <v>116.76190476190476</v>
       </c>
       <c r="C14" s="11">
         <f>(B14*45)/B11</f>
-        <v>29</v>
+        <v>32.839285714285708</v>
       </c>
       <c r="D14" s="12">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E14" s="12">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F14" s="13">
         <f>C14+D14+E14</f>
-        <v>29</v>
+        <v>89.839285714285708</v>
       </c>
       <c r="G14" s="18">
         <f>F14</f>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>89.839285714285708</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>5</v>
       </c>
       <c r="B15" s="11">
-        <f>SUM(B3:M3)</f>
-        <v>35.107142857142861</v>
+        <f>SUM(B3:Q3)</f>
+        <v>85.392857142857139</v>
       </c>
       <c r="C15" s="11">
         <f>(B15*45)/B11</f>
-        <v>13.165178571428573</v>
+        <v>24.016741071428569</v>
       </c>
       <c r="D15" s="12">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E15" s="12">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F15" s="13">
         <f>C15+D15+E15</f>
-        <v>13.165178571428573</v>
+        <v>60.016741071428569</v>
       </c>
       <c r="G15" s="18">
         <f t="shared" ref="G15" si="0">F15</f>
-        <v>13.165178571428573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>60.016741071428569</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
